--- a/Relação De Documentos - Sc.xlsx
+++ b/Relação De Documentos - Sc.xlsx
@@ -4,27 +4,56 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="555" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="1005" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="08-2015" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Código</t>
+  </si>
+  <si>
+    <t>Desatualizados</t>
+  </si>
+  <si>
+    <t>Atualizados</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Inserção</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>ScAgenmRel01</t>
+  </si>
+  <si>
+    <t>Por Documento</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -52,8 +81,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -358,18 +402,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2">
+        <v>42231</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>